--- a/Recommendation_Likelihood.xlsx
+++ b/Recommendation_Likelihood.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackkellett/Documents/SecondYearUni/VIP/Design/Social Impact Excel Sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/70735d52a2925493/Documents/malawi-microgrids-VIP4SD-main/malawi-microgrids-VIP4SD-main/Social/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEEB16C-96C5-2445-B0D7-4A66F7FD2C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{EEEEB16C-96C5-2445-B0D7-4A66F7FD2C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8236C3D8-3076-4DB8-BC01-460218D0BB41}"/>
   <bookViews>
-    <workbookView xWindow="2960" yWindow="10820" windowWidth="25840" windowHeight="12460" xr2:uid="{E7351347-D1D4-8643-BE6B-E4542E99C9F6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{E7351347-D1D4-8643-BE6B-E4542E99C9F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -121,10 +121,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -162,7 +166,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -268,7 +272,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -410,7 +414,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -421,12 +425,12 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B4" sqref="B4:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -446,7 +450,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -466,7 +470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -486,17 +490,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>31</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
